--- a/docs/PTA3a_ADDC_30_1d5/PTA3a_ADDC_30_1d5_01.08.24_output.xlsx
+++ b/docs/PTA3a_ADDC_30_1d5/PTA3a_ADDC_30_1d5_01.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731700473.0740252</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731700474.0165324</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700473.0740252.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700474.0165324.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>3036.2</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>3035.7</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.5</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731700474.0554283</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731700474.312712</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700474.0554283.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700474.312712.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>3036</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>3036.5</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.5</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731700474.4958842</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731700474.880935</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700474.4958842.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700474.880935.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>3034.9</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>3032.65</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-2.25</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731700475.3746164</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731700475.9720175</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700475.3746164.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700475.9720175.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>3028.25</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>3029</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.75</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731700476.9074883</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731700477.4659948</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700476.9074883.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700477.4659948.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>3025.35</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>3026.45</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>1.099999999999909</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731700477.506885</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731700478.7166774</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700477.506885.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700478.7166774.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>3027.9</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>3031.15</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-3.25</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731700478.8074071</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731700479.5075357</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700478.8074071.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700479.5075357.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>3030.1</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>3026.9</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-3.199999999999818</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731700480.1269062</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731700480.349312</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700480.1269062.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700480.349312.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>3020.35</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>3018.55</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-1.799999999999727</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731700481.0344791</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731700481.5291557</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700481.0344791.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700481.5291557.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>3015.9</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>3017.25</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>1.349999999999909</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731700481.7934492</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731700482.0288198</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700481.7934492.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700482.0288198.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>3019.9</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>3018.3</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>1.599999999999909</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731700482.4267287</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731700482.7778175</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700482.4267287.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700482.7778175.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>3017.6</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>3021.8</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>4.200000000000273</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731700482.8406498</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731700483.6305366</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700482.8406498.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700483.6305366.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>3022.15</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>3022.55</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.4000000000000909</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731700483.7422378</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731700484.3546007</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700483.7422378.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700484.3546007.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>3025.7</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>3025</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.6999999999998181</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731700484.4443605</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731700484.784423</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700484.4443605.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700484.784423.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>3023</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>3027.75</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>4.75</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731700484.7984133</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731700485.116564</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700484.7984133.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700485.116564.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>3027.75</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>3022.3</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>5.449999999999818</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1319,51 +1425,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731700485.2088616</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731700486.4959471</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700485.2088616.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700486.4959471.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>3019.95</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>3013.35</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-6.599999999999909</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -1371,51 +1483,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731700486.9826455</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731700487.315755</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700486.9826455.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700487.315755.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>3007.1</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>3008</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.9000000000000909</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1423,51 +1541,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731700487.4992359</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731700487.7844732</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700487.4992359.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700487.7844732.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>3005.55</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>3005.6</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.04999999999972715</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1475,51 +1599,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731700488.0856678</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731700488.296105</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700488.0856678.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700488.296105.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>3005.75</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>3004.6</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>1.150000000000091</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1527,51 +1657,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731700488.4806116</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731700488.6910486</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700488.4806116.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700488.6910486.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>3007.7</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>3004.3</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>3.399999999999636</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1579,51 +1715,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731700488.7050114</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731700489.6833951</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700488.7050114.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700489.6833951.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>3004.3</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>3001.95</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-2.350000000000364</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -1631,51 +1773,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731700489.7452297</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731700489.8589258</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700489.7452297.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700489.8589258.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>3003.2</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>3001.8</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>1.399999999999636</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1683,51 +1831,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731700490.1112506</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731700490.1996977</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700490.1112506.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700490.1996977.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>3003.35</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>3002.5</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.8499999999999091</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1735,51 +1889,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731700490.3363297</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731700491.2977717</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700490.3363297.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700491.2977717.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>3001.85</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>2991.15</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-10.69999999999982</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -1787,51 +1947,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731700491.4822388</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731700491.9719565</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700491.4822388.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700491.9719565.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>2996</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>2992.45</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>3.550000000000182</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1839,44 +2005,50 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731700492.6351557</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731700492.6351557.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731700492.6351557.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>2996.95</v>
       </c>
-      <c r="J28" t="n">
-        <v>2996.95</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>2996.05</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8999999999996362</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -1937,16 +2109,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.649999999999181</v>
+        <v>2.549999999998818</v>
       </c>
       <c r="C2" t="n">
         <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06346153846150698</v>
+        <v>0.0980769230768776</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.08000000000000004</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
